--- a/satd_issue_dataset_Swift_tsuji.xlsx
+++ b/satd_issue_dataset_Swift_tsuji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DE13DE-4A67-4044-B224-7BED9E3B86CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64926ED-E5B7-7044-9FD1-39EA16F33365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="-21100" windowWidth="28300" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Swift" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="144">
   <si>
     <t>Issue</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>https://github.com/wordpress-mobile/WordPress-iOS/issues/8195</t>
-  </si>
-  <si>
-    <t>https://github.com/wordpress-mobile/WordPress-iOS/issues/8235</t>
   </si>
   <si>
     <t>https://github.com/wordpress-mobile/WordPress-iOS/issues/8367</t>
@@ -296,6 +293,279 @@
   <si>
     <t>[Content]
 [Class]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アプリが大量のスペースを占有しないように、ローカル ストレージを制限する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]画像のロード/キャッシュ/キャンセルをアプリ全体で一貫させる
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Performanceにも関係しそう</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カンケイシソウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostServiceRemoteXMLRPC を更新して、metaWebBlog の代わりに wp 呼び出しを使用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PageListCellプロトコルを削除します
+[Class]不要なプロトコルの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロトコル BasePageListCellDelegate を削除します
+[Class]不要なプロトコルの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロトコル WPPostContentViewProvider を削除します
+[Class]不要なプロトコルの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AbstractPostListViewController でメソッドのオーバーライドを強制しようとしないでください
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ブログのアカウントと jetpackAccount の区別をなくします
+[Class]機能の改善</t>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]nil/空の応答をエラー条件として扱う
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostCardTableViewCell の投稿は、AbstractPost ではなく Post クラスにする必要があります
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostListViewController で冗長なコードを統合します
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]特定の順序で共有サービスを注文します
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostServiceRemote が必要に応じて NSProgress オブジェクトを返すようにします
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AFNetworking 3.1 へのアップデート
+[Class]ツールのアップデート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content](可能であれば) Bitcode Mach-O バイナリの問題を解決する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WordPressComStatsiOS の Archive Compiler Warning Umbrella ヘッダーを修正
+[Class]警告の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PrivateSiteURLProtocol は、接続/イメージごとに新しいセッションを使用します
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostService のリファクタリングとクラス ヘルパー メソッドの削除
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]レーキ用に SwiftLint を 0.12.0 に、CocoaPods を 1.1.1 に更新
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Aztec: 発行ボタンのロジックをステート マシンにリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハイブリッド エディター: 公開後のアラートに HUD テキストが使用されない
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PushNotificationsManager + InteractiveNotificationsManager のリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビューをリファクタリングして自動レイアウトを使用する
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]単体テスト: WordPressAppDelegate を読み込まない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tests</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Stats Repo を動的フレームワークとして WPiOS に移動
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]共有リポジトリを動的フレームワークとして WPiOS に移動
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テーブル ビュー コントローラーをリファクタリングしてコードの重複を減らす 
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリング EditPostViewController
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WordPressKit: 多数の静的アナライザーの問題を修正
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]いくつかの Pod をバージョン ロックし、他を更新する
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MGSwipeTableCell の更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WPWebViewController を WKWebView に移行する
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログイン: signinWithLoginFields の代わりに LoginFacade.loginWithLoginFields を呼び出す
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バックグラウンド スレッドで呼び出される UI API
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのプロジェクトを XCode 9 の推奨設定に更新する
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サインアップ/ログインに使用するポッドを最新バージョンに更新する
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Helpshift をバージョン 6.3.0 に更新する
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]XCode 9.1 の警告を修正
+[Class]警告への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古いポッドを更新する
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://github.com/wordpress-mobile/WordPress-iOS/issues/8235</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UIImageView Gravatar 拡張機能のマージ
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古いポッドを更新する 
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]iPhone 6 Plus での起動タイムアウト
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]XCode 9.3 の警告を修正
+[Class]警告への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UIWebView を WKWebView に置き換える
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WPiOS を最新バージョンに対応させるWordPressAuthenticator
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードのクリーンアップ: Swift 4 の EditorSettings を更新
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クイック スタート v2: [次のステップ] ヘッダーの上のギャップを埋める
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Zendesk: 非推奨の API を使用する
+[Class]非推奨のAPIへの対応</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1263,16 +1533,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
     <col min="3" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="54.28515625" customWidth="1"/>
+    <col min="6" max="7" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1283,46 +1553,58 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="42">
+    </row>
+    <row r="2" spans="1:6" ht="63">
       <c r="A2">
         <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42">
+    <row r="3" spans="1:6" ht="63">
       <c r="A3">
         <v>904</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="63">
       <c r="A4">
         <v>4284</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -1332,8 +1614,11 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -1343,8 +1628,11 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -1354,19 +1642,25 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63">
       <c r="A8">
         <v>5319</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -1376,8 +1670,11 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -1387,19 +1684,25 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63">
       <c r="A11">
         <v>5396</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -1409,8 +1712,11 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -1420,19 +1726,25 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="42">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="63">
       <c r="A14">
         <v>5516</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -1442,8 +1754,11 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -1453,41 +1768,53 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="42">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="63">
       <c r="A17">
         <v>5716</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="42">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="63">
       <c r="A18">
         <v>5717</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="42">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="63">
       <c r="A19">
         <v>5962</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -1497,41 +1824,53 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="42">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="63">
       <c r="A21">
         <v>6422</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="42">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="63">
       <c r="A22">
         <v>6655</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="42">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="63">
       <c r="A23">
         <v>6755</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -1541,8 +1880,11 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -1552,8 +1894,11 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -1563,8 +1908,11 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -1574,19 +1922,25 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="42">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="63">
       <c r="A28">
         <v>7188</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -1596,8 +1950,11 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -1607,8 +1964,11 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -1618,8 +1978,11 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -1629,8 +1992,11 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -1640,19 +2006,25 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="42">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="63">
       <c r="A34">
         <v>7789</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -1662,8 +2034,11 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -1673,19 +2048,25 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="42">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="63">
       <c r="A37">
         <v>7927</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -1695,8 +2076,11 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -1706,8 +2090,11 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -1717,8 +2104,11 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -1726,10 +2116,13 @@
         <v>8235</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -1737,10 +2130,13 @@
         <v>8367</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -1748,10 +2144,13 @@
         <v>8844</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -1759,10 +2158,13 @@
         <v>9027</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -1770,10 +2172,13 @@
         <v>9102</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -1781,10 +2186,13 @@
         <v>9633</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -1792,10 +2200,13 @@
         <v>9766</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -1803,21 +2214,27 @@
         <v>10474</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="63">
       <c r="A49">
         <v>11041</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -1825,10 +2242,13 @@
         <v>11477</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -1836,10 +2256,10 @@
         <v>11482</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -1847,10 +2267,10 @@
         <v>11509</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -1858,10 +2278,10 @@
         <v>11676</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -1869,10 +2289,10 @@
         <v>12107</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -1880,10 +2300,10 @@
         <v>13179</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -1891,10 +2311,10 @@
         <v>13180</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -1902,10 +2322,10 @@
         <v>13181</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -1913,10 +2333,10 @@
         <v>13182</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -1924,10 +2344,10 @@
         <v>13183</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -1935,10 +2355,10 @@
         <v>13184</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -1946,10 +2366,10 @@
         <v>13185</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -1957,10 +2377,10 @@
         <v>13186</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -1968,10 +2388,10 @@
         <v>13187</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -1979,10 +2399,10 @@
         <v>15411</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -1990,10 +2410,10 @@
         <v>16439</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -2001,10 +2421,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -2012,10 +2432,10 @@
         <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -2023,10 +2443,10 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -2034,10 +2454,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -2045,10 +2465,10 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -2056,10 +2476,10 @@
         <v>196</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -2067,10 +2487,10 @@
         <v>307</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -2078,10 +2498,10 @@
         <v>439</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -2089,10 +2509,10 @@
         <v>478</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -2100,10 +2520,10 @@
         <v>880</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -2111,10 +2531,10 @@
         <v>1131</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -2122,10 +2542,10 @@
         <v>204</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -2133,10 +2553,10 @@
         <v>271</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -2144,10 +2564,10 @@
         <v>318</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -2155,10 +2575,10 @@
         <v>329</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -2166,10 +2586,10 @@
         <v>364</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -2177,10 +2597,10 @@
         <v>420</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -2188,10 +2608,10 @@
         <v>423</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -2199,10 +2619,10 @@
         <v>502</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -2210,10 +2630,10 @@
         <v>540</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -2221,10 +2641,10 @@
         <v>643</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/satd_issue_dataset_Swift_tsuji.xlsx
+++ b/satd_issue_dataset_Swift_tsuji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64926ED-E5B7-7044-9FD1-39EA16F33365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6347C958-B0D5-8749-9B0C-FB30865619CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10080" yWindow="-21100" windowWidth="28300" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="182">
   <si>
     <t>Issue</t>
   </si>
@@ -289,11 +289,6 @@
   </si>
   <si>
     <t>Memo</t>
-  </si>
-  <si>
-    <t>[Content]
-[Class]</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>[Content]アプリが大量のスペースを占有しないように、ローカル ストレージを制限する
@@ -566,6 +561,206 @@
   <si>
     <t>[Content]Zendesk: 非推奨の API を使用する
 [Class]非推奨のAPIへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WebKitLegacy クラッシュ
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FeatureFlag ファイルのクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]投稿ステータス、ユーザーおよびアプリが開始したアクションについて、ユーザー向けの語彙を定義する
+[Class]ボキャブラリの定義</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Requirement</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Zendesk SDK を 3.0.0 にアップグレードする
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PostPreviewViewController を WKWebView に移行する
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SharingAuthorizationWebViewController を WKWebView に移行する
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WKWebView の MediaItemViewController のサポートを追加します
+[Class]機能の追加</t>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">キノウノツイァ </t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UIWebView の MediaItemViewController でのサポートを削除しました
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WKWebView の WPUserAgentTests にテストを追加します
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UIWebView の WPUserAgentTests のテストを削除します
+[Class]テストの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WPUserAgent を WKWebView に移行します
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コメントまたは名前の UIWebView 参照を削除または置換します
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サイト確認プレビューから古いコードの一部を削除する機能を調査する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]投稿設定から投稿場所を設定する機能を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]@3x リソースを追加
+[Class]リソースの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]動的型のサポートを追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]NavBar ハックを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SPTransitionController の分離
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Linkifier: .Blog TLD サポート
+[Class]ツールのサポート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI テスト ケースを追加する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Simperium ポッドを最新リリースに更新する 
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AppbotX の依存関係を置き換える
+[Class]依存関係の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]更新: 配色
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アーカイブされた SAMKeychain ライブラリの代替品を探す
+[Class]ライブラリの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ノート バケットのインデックス作成が完了した後にのみウェルカム ノートの作成を試みる
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API の変更後、一部のコードをクリーンアップまたは削除する必要があります
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アプリケーションからアクセスできない 2017 年のビデオ トランスクリプト
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]setDisplayedRows がバックグラウンド キューから UI メソッドを呼び出す
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]移行テスト用の古いデータベース バージョン
+[Class]テストの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サードパーティのライブラリを使用する代わりに Codable を採用
+[Class]ツールの使用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「貢献」とは、存在しない「ロードマップ」を指します
+[Class]ドキュメントの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Mohave では、NSCalendarsUsageDescriptionplist に含める必要があります 
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Swift 4.2/Xcode 10 に移行する
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリースの公証
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>リリースの話だがコード署名を行うことで解決している</t>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">オコナウコトデカイケツ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Carthage のインストールをチェックして、bootstrap.sh を改善します
+[Class]コードの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1166,7 +1361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,6 +1370,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1533,19 +1731,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
     <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="3" customWidth="1"/>
     <col min="6" max="7" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1753,7 @@
       <c r="C1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1570,13 +1768,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="63">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42">
       <c r="A3">
         <v>904</v>
       </c>
@@ -1584,13 +1782,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="63">
@@ -1601,10 +1799,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -1615,10 +1813,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -1629,10 +1827,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -1643,10 +1841,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="63">
@@ -1657,10 +1855,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -1671,10 +1869,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -1685,10 +1883,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="63">
@@ -1699,10 +1897,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -1713,10 +1911,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -1727,10 +1925,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="63">
@@ -1741,10 +1939,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -1755,10 +1953,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -1769,10 +1967,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="63">
@@ -1783,10 +1981,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="63">
@@ -1797,10 +1995,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="63">
@@ -1811,10 +2009,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -1825,10 +2023,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="63">
@@ -1839,10 +2037,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="63">
@@ -1853,10 +2051,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="63">
@@ -1867,10 +2065,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -1881,10 +2079,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -1895,10 +2093,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -1909,10 +2107,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -1923,10 +2121,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="63">
@@ -1937,10 +2135,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -1951,10 +2149,10 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -1965,10 +2163,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -1979,10 +2177,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -1993,10 +2191,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -2007,10 +2205,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="63">
@@ -2021,10 +2219,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -2035,10 +2233,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -2049,10 +2247,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="63">
@@ -2063,10 +2261,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -2077,10 +2275,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -2091,10 +2289,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -2105,10 +2303,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -2116,13 +2314,13 @@
         <v>8235</v>
       </c>
       <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -2133,10 +2331,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -2147,10 +2345,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -2161,10 +2359,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -2175,10 +2373,10 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -2189,10 +2387,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -2203,10 +2401,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -2217,10 +2415,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="63">
@@ -2231,10 +2429,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -2245,10 +2443,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -2258,8 +2456,11 @@
       <c r="B51" t="s">
         <v>50</v>
       </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -2269,19 +2470,28 @@
       <c r="B52" t="s">
         <v>51</v>
       </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="42">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="63">
       <c r="A53">
         <v>11676</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" t="s">
+        <v>147</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -2291,8 +2501,11 @@
       <c r="B54" t="s">
         <v>53</v>
       </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -2302,8 +2515,11 @@
       <c r="B55" t="s">
         <v>54</v>
       </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -2313,41 +2529,53 @@
       <c r="B56" t="s">
         <v>55</v>
       </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="42">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="63">
       <c r="A57">
         <v>13181</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="42">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="63">
       <c r="A58">
         <v>13182</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="42">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="63">
       <c r="A59">
         <v>13183</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -2357,8 +2585,11 @@
       <c r="B60" t="s">
         <v>59</v>
       </c>
+      <c r="C60" t="s">
+        <v>117</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -2368,8 +2599,11 @@
       <c r="B61" t="s">
         <v>60</v>
       </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -2379,8 +2613,11 @@
       <c r="B62" t="s">
         <v>61</v>
       </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -2390,19 +2627,25 @@
       <c r="B63" t="s">
         <v>62</v>
       </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="42">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="63">
       <c r="A64">
         <v>15411</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -2412,8 +2655,11 @@
       <c r="B65" t="s">
         <v>64</v>
       </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -2423,8 +2669,14 @@
       <c r="B66" t="s">
         <v>65</v>
       </c>
+      <c r="C66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -2434,8 +2686,11 @@
       <c r="B67" t="s">
         <v>66</v>
       </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -2445,8 +2700,11 @@
       <c r="B68" t="s">
         <v>67</v>
       </c>
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -2456,8 +2714,11 @@
       <c r="B69" t="s">
         <v>68</v>
       </c>
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -2467,8 +2728,14 @@
       <c r="B70" t="s">
         <v>69</v>
       </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" t="s">
+        <v>90</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -2478,8 +2745,11 @@
       <c r="B71" t="s">
         <v>70</v>
       </c>
+      <c r="C71" t="s">
+        <v>117</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -2489,8 +2759,11 @@
       <c r="B72" t="s">
         <v>71</v>
       </c>
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -2500,8 +2773,14 @@
       <c r="B73" t="s">
         <v>72</v>
       </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" t="s">
+        <v>105</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -2511,8 +2790,11 @@
       <c r="B74" t="s">
         <v>73</v>
       </c>
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -2522,52 +2804,67 @@
       <c r="B75" t="s">
         <v>74</v>
       </c>
+      <c r="C75" t="s">
+        <v>105</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="42">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="63">
       <c r="A76">
         <v>1131</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="42">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="63">
       <c r="A77">
         <v>204</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="42">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="63">
       <c r="A78">
         <v>271</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="42">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="63">
       <c r="A79">
         <v>318</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -2577,8 +2874,11 @@
       <c r="B80" t="s">
         <v>79</v>
       </c>
+      <c r="C80" t="s">
+        <v>117</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -2588,8 +2888,11 @@
       <c r="B81" t="s">
         <v>80</v>
       </c>
+      <c r="C81" t="s">
+        <v>105</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -2599,19 +2902,25 @@
       <c r="B82" t="s">
         <v>81</v>
       </c>
+      <c r="C82" t="s">
+        <v>146</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="42">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="63">
       <c r="A83">
         <v>423</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
       </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -2621,8 +2930,11 @@
       <c r="B84" t="s">
         <v>83</v>
       </c>
+      <c r="C84" t="s">
+        <v>105</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -2632,19 +2944,28 @@
       <c r="B85" t="s">
         <v>84</v>
       </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="42">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="63">
       <c r="A86">
         <v>643</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
       </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
